--- a/SDET10.xlsx
+++ b/SDET10.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavan\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="2535"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,26 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>HYD</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>BOM</t>
-  </si>
-  <si>
-    <t>PNQ</t>
-  </si>
-  <si>
-    <t>BLR</t>
-  </si>
-  <si>
-    <t>MAA</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,38 +336,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="B2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
